--- a/graphics_generation/elisa/tecan/elisa_anti_pvx_45_min.xlsx
+++ b/graphics_generation/elisa/tecan/elisa_anti_pvx_45_min.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Programm: Tecan i-control</t>
   </si>
@@ -162,13 +162,13 @@
     <t>Datum:</t>
   </si>
   <si>
-    <t>26.06.2025</t>
+    <t>30.06.2025</t>
   </si>
   <si>
     <t>Zeit:</t>
   </si>
   <si>
-    <t>15:34:36</t>
+    <t>14:37:38</t>
   </si>
   <si>
     <t>System</t>
@@ -234,16 +234,16 @@
     <t>Bereich der Platte</t>
   </si>
   <si>
-    <t>B1-G12</t>
+    <t>B2-G11</t>
   </si>
   <si>
     <t>Startzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:34:41</t>
-  </si>
-  <si>
-    <t>Temperatur: 25.6 °C</t>
+    <t>30.06.2025 14:37:43</t>
+  </si>
+  <si>
+    <t>Temperatur: 28.5 °C</t>
   </si>
   <si>
     <t>&lt;&gt;</t>
@@ -270,7 +270,10 @@
     <t>Endzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:35:41</t>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>30.06.2025 14:38:33</t>
   </si>
 </sst>
 </file>
@@ -436,11 +439,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
@@ -846,12 +850,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -859,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -870,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -881,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -889,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -900,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -908,7 +912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -916,304 +920,262 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3">
         <v>11</v>
       </c>
-      <c r="M28" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.3003000020980835</v>
+        <v>0.98530000448226929</v>
       </c>
       <c r="C29">
-        <v>0.18330000340938568</v>
+        <v>0.87709999084472656</v>
       </c>
       <c r="D29">
-        <v>0.1875</v>
+        <v>0.82200002670288086</v>
       </c>
       <c r="E29">
-        <v>0.12809999287128448</v>
+        <v>2.5278999805450439</v>
       </c>
       <c r="F29">
-        <v>0.13809999823570251</v>
+        <v>2.5499000549316406</v>
       </c>
       <c r="G29">
-        <v>0.13709999620914459</v>
+        <v>2.5599000453948975</v>
       </c>
       <c r="H29">
-        <v>0.12380000203847885</v>
+        <v>3.4419999122619629</v>
       </c>
       <c r="I29">
-        <v>0.1307000070810318</v>
+        <v>3.4475998878479004</v>
       </c>
       <c r="J29">
-        <v>0.13989999890327454</v>
+        <v>3.4907000064849854</v>
       </c>
       <c r="K29">
-        <v>0.25009998679161072</v>
-      </c>
-      <c r="L29">
-        <v>0.29129999876022339</v>
-      </c>
-      <c r="M29">
-        <v>0.39449998736381531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.31720000505447388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.22869999706745148</v>
+        <v>0.80430001020431519</v>
       </c>
       <c r="C30">
-        <v>0.16310000419616699</v>
+        <v>0.76639997959136963</v>
       </c>
       <c r="D30">
-        <v>0.16730000078678131</v>
+        <v>0.72729998826980591</v>
       </c>
       <c r="E30">
-        <v>0.12099999934434891</v>
+        <v>2.4193999767303467</v>
       </c>
       <c r="F30">
-        <v>0.1339000016450882</v>
+        <v>2.4200999736785889</v>
       </c>
       <c r="G30">
-        <v>0.10189999639987946</v>
+        <v>2.3508000373840332</v>
       </c>
       <c r="H30">
-        <v>0.12909999489784241</v>
+        <v>2.736799955368042</v>
       </c>
       <c r="I30">
-        <v>0.12150000035762787</v>
+        <v>2.6770999431610107</v>
       </c>
       <c r="J30">
-        <v>0.12590000033378601</v>
+        <v>2.6705000400543213</v>
       </c>
       <c r="K30">
-        <v>0.20290000736713409</v>
-      </c>
-      <c r="L30">
-        <v>0.1988999992609024</v>
-      </c>
-      <c r="M30">
-        <v>0.23890000581741333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.17829999327659607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.19910000264644623</v>
+        <v>0.92229998111724854</v>
       </c>
       <c r="C31">
-        <v>0.14239999651908875</v>
+        <v>0.89480000734329224</v>
       </c>
       <c r="D31">
-        <v>0.14329999685287476</v>
+        <v>0.89440000057220459</v>
       </c>
       <c r="E31">
-        <v>0.12110000103712082</v>
+        <v>0.15039999783039093</v>
       </c>
       <c r="F31">
-        <v>0.11140000075101852</v>
+        <v>0.14839999377727509</v>
       </c>
       <c r="G31">
-        <v>0.12330000102519989</v>
+        <v>0.14229999482631683</v>
       </c>
       <c r="H31">
-        <v>0.11559999734163284</v>
+        <v>1.7340999841690063</v>
       </c>
       <c r="I31">
-        <v>0.11479999870061874</v>
+        <v>1.7202999591827393</v>
       </c>
       <c r="J31">
-        <v>0.12099999934434891</v>
+        <v>1.773900032043457</v>
       </c>
       <c r="K31">
-        <v>0.16150000691413879</v>
-      </c>
-      <c r="L31">
-        <v>0.16380000114440918</v>
-      </c>
-      <c r="M31">
-        <v>0.18009999394416809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.15330000221729279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.23019999265670776</v>
+        <v>0.88969999551773071</v>
       </c>
       <c r="C32">
-        <v>0.17159999907016754</v>
+        <v>0.8618999719619751</v>
       </c>
       <c r="D32">
-        <v>0.16310000419616699</v>
+        <v>0.8499000072479248</v>
       </c>
       <c r="E32">
-        <v>0.37070000171661377</v>
+        <v>0.14900000393390656</v>
       </c>
       <c r="F32">
-        <v>0.38609999418258667</v>
+        <v>0.15889999270439148</v>
       </c>
       <c r="G32">
-        <v>0.36449998617172241</v>
+        <v>0.15780000388622284</v>
       </c>
       <c r="H32">
-        <v>0.70660001039505005</v>
+        <v>1.1439000368118286</v>
       </c>
       <c r="I32">
-        <v>0.7038000226020813</v>
+        <v>1.1694999933242798</v>
       </c>
       <c r="J32">
-        <v>0.66900002956390381</v>
+        <v>1.1845999956130981</v>
       </c>
       <c r="K32">
-        <v>0.10530000180006027</v>
-      </c>
-      <c r="L32">
-        <v>0.11150000244379044</v>
-      </c>
-      <c r="M32">
-        <v>0.13709999620914459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.16150000691413879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.25619998574256897</v>
+        <v>0.29640001058578491</v>
       </c>
       <c r="C33">
-        <v>0.15700000524520874</v>
+        <v>0.24519999325275421</v>
       </c>
       <c r="D33">
-        <v>0.15770000219345093</v>
-      </c>
-      <c r="E33">
-        <v>0.33590000867843628</v>
-      </c>
-      <c r="F33">
-        <v>0.33730000257492065</v>
-      </c>
-      <c r="G33">
-        <v>0.34509998559951782</v>
+        <v>0.24320000410079956</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H33">
-        <v>0.46579998731613159</v>
+        <v>0.81230002641677856</v>
       </c>
       <c r="I33">
-        <v>0.47389999032020569</v>
+        <v>0.80650001764297485</v>
       </c>
       <c r="J33">
-        <v>0.45960000157356262</v>
+        <v>0.84560000896453857</v>
       </c>
       <c r="K33">
-        <v>0.10570000112056732</v>
-      </c>
-      <c r="L33">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="M33">
-        <v>0.15929999947547913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.16259999573230743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.32510000467300415</v>
+        <v>0.39750000834465027</v>
       </c>
       <c r="C34">
-        <v>0.15099999308586121</v>
+        <v>0.28580000996589661</v>
       </c>
       <c r="D34">
-        <v>0.14329999685287476</v>
-      </c>
-      <c r="E34">
-        <v>0.30120000243186951</v>
-      </c>
-      <c r="F34">
-        <v>0.27860000729560852</v>
-      </c>
-      <c r="G34">
-        <v>0.27669999003410339</v>
+        <v>0.28479999303817749</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H34">
-        <v>0.37149998545646667</v>
+        <v>0.53359997272491455</v>
       </c>
       <c r="I34">
-        <v>0.35940000414848328</v>
+        <v>0.53570002317428589</v>
       </c>
       <c r="J34">
-        <v>0.34259998798370361</v>
+        <v>0.53560000658035278</v>
       </c>
       <c r="K34">
-        <v>0.10980000346899033</v>
-      </c>
-      <c r="L34">
-        <v>0.14280000329017639</v>
-      </c>
-      <c r="M34">
-        <v>0.2581000030040741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.23749999701976776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
